--- a/stock-price-prediction-tensorflow/output/stock_price.xlsx
+++ b/stock-price-prediction-tensorflow/output/stock_price.xlsx
@@ -485,7 +485,7 @@
         <v>43047</v>
       </c>
       <c r="B2" t="n">
-        <v>166.9053497314453</v>
+        <v>169.2876281738281</v>
       </c>
     </row>
     <row r="3">
@@ -493,7 +493,7 @@
         <v>43048</v>
       </c>
       <c r="B3" t="n">
-        <v>168.6471252441406</v>
+        <v>170.9856262207031</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         <v>43049</v>
       </c>
       <c r="B4" t="n">
-        <v>170.143798828125</v>
+        <v>172.4764404296875</v>
       </c>
     </row>
     <row r="5">
@@ -509,7 +509,7 @@
         <v>43052</v>
       </c>
       <c r="B5" t="n">
-        <v>171.2346038818359</v>
+        <v>173.6122436523438</v>
       </c>
     </row>
     <row r="6">
@@ -517,7 +517,7 @@
         <v>43053</v>
       </c>
       <c r="B6" t="n">
-        <v>171.9185943603516</v>
+        <v>174.3876647949219</v>
       </c>
     </row>
     <row r="7">
@@ -525,7 +525,7 @@
         <v>43054</v>
       </c>
       <c r="B7" t="n">
-        <v>172.0409088134766</v>
+        <v>174.6541748046875</v>
       </c>
     </row>
     <row r="8">
@@ -533,7 +533,7 @@
         <v>43055</v>
       </c>
       <c r="B8" t="n">
-        <v>171.6097564697266</v>
+        <v>174.4127044677734</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         <v>43056</v>
       </c>
       <c r="B9" t="n">
-        <v>171.1041717529297</v>
+        <v>174.0889282226562</v>
       </c>
     </row>
     <row r="10">
@@ -549,7 +549,7 @@
         <v>43059</v>
       </c>
       <c r="B10" t="n">
-        <v>170.4970703125</v>
+        <v>173.6473999023438</v>
       </c>
     </row>
     <row r="11">
@@ -557,7 +557,7 @@
         <v>43060</v>
       </c>
       <c r="B11" t="n">
-        <v>169.8718872070312</v>
+        <v>173.1643829345703</v>
       </c>
     </row>
     <row r="12">
@@ -565,7 +565,7 @@
         <v>43061</v>
       </c>
       <c r="B12" t="n">
-        <v>169.6053771972656</v>
+        <v>172.9822692871094</v>
       </c>
     </row>
     <row r="13">
@@ -573,7 +573,7 @@
         <v>43063</v>
       </c>
       <c r="B13" t="n">
-        <v>169.7367706298828</v>
+        <v>173.1371765136719</v>
       </c>
     </row>
     <row r="14">
@@ -581,7 +581,7 @@
         <v>43066</v>
       </c>
       <c r="B14" t="n">
-        <v>170.0785522460938</v>
+        <v>173.4671478271484</v>
       </c>
     </row>
     <row r="15">
@@ -589,7 +589,7 @@
         <v>43067</v>
       </c>
       <c r="B15" t="n">
-        <v>170.4223327636719</v>
+        <v>173.7932434082031</v>
       </c>
     </row>
     <row r="16">
@@ -597,7 +597,7 @@
         <v>43068</v>
       </c>
       <c r="B16" t="n">
-        <v>170.6377105712891</v>
+        <v>174.0036468505859</v>
       </c>
     </row>
     <row r="17">
@@ -605,7 +605,7 @@
         <v>43069</v>
       </c>
       <c r="B17" t="n">
-        <v>170.4081573486328</v>
+        <v>173.8128509521484</v>
       </c>
     </row>
     <row r="18">
@@ -613,7 +613,7 @@
         <v>43070</v>
       </c>
       <c r="B18" t="n">
-        <v>170.1921234130859</v>
+        <v>173.6371002197266</v>
       </c>
     </row>
     <row r="19">
@@ -621,7 +621,7 @@
         <v>43073</v>
       </c>
       <c r="B19" t="n">
-        <v>169.9158782958984</v>
+        <v>173.3998718261719</v>
       </c>
     </row>
     <row r="20">
@@ -629,7 +629,7 @@
         <v>43074</v>
       </c>
       <c r="B20" t="n">
-        <v>169.5102996826172</v>
+        <v>173.0390625</v>
       </c>
     </row>
     <row r="21">
@@ -637,7 +637,7 @@
         <v>43075</v>
       </c>
       <c r="B21" t="n">
-        <v>169.0574951171875</v>
+        <v>172.6293792724609</v>
       </c>
     </row>
     <row r="22">
@@ -645,7 +645,7 @@
         <v>43076</v>
       </c>
       <c r="B22" t="n">
-        <v>168.5587158203125</v>
+        <v>172.1703186035156</v>
       </c>
     </row>
     <row r="23">
@@ -653,7 +653,7 @@
         <v>43077</v>
       </c>
       <c r="B23" t="n">
-        <v>168.11376953125</v>
+        <v>171.7525329589844</v>
       </c>
     </row>
     <row r="24">
@@ -661,7 +661,7 @@
         <v>43080</v>
       </c>
       <c r="B24" t="n">
-        <v>167.7460632324219</v>
+        <v>171.3970184326172</v>
       </c>
     </row>
     <row r="25">
@@ -669,7 +669,7 @@
         <v>43081</v>
       </c>
       <c r="B25" t="n">
-        <v>167.7837982177734</v>
+        <v>171.4032135009766</v>
       </c>
     </row>
     <row r="26">
@@ -677,7 +677,7 @@
         <v>43082</v>
       </c>
       <c r="B26" t="n">
-        <v>167.9446868896484</v>
+        <v>171.5155181884766</v>
       </c>
     </row>
     <row r="27">
@@ -685,7 +685,7 @@
         <v>43083</v>
       </c>
       <c r="B27" t="n">
-        <v>168.2226409912109</v>
+        <v>171.7369995117188</v>
       </c>
     </row>
     <row r="28">
@@ -693,7 +693,7 @@
         <v>43084</v>
       </c>
       <c r="B28" t="n">
-        <v>168.5361938476562</v>
+        <v>171.9963073730469</v>
       </c>
     </row>
     <row r="29">
@@ -701,7 +701,7 @@
         <v>43087</v>
       </c>
       <c r="B29" t="n">
-        <v>169.0148162841797</v>
+        <v>172.4130554199219</v>
       </c>
     </row>
     <row r="30">
@@ -709,7 +709,7 @@
         <v>43088</v>
       </c>
       <c r="B30" t="n">
-        <v>169.7799072265625</v>
+        <v>173.0966033935547</v>
       </c>
     </row>
     <row r="31">
@@ -717,7 +717,7 @@
         <v>43089</v>
       </c>
       <c r="B31" t="n">
-        <v>170.443115234375</v>
+        <v>173.6957855224609</v>
       </c>
     </row>
     <row r="32">
@@ -725,7 +725,7 @@
         <v>43090</v>
       </c>
       <c r="B32" t="n">
-        <v>170.9733123779297</v>
+        <v>174.1883239746094</v>
       </c>
     </row>
     <row r="33">
@@ -733,7 +733,7 @@
         <v>43091</v>
       </c>
       <c r="B33" t="n">
-        <v>171.4425354003906</v>
+        <v>174.6371307373047</v>
       </c>
     </row>
     <row r="34">
@@ -741,7 +741,7 @@
         <v>43095</v>
       </c>
       <c r="B34" t="n">
-        <v>171.8289337158203</v>
+        <v>175.0183868408203</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>43096</v>
       </c>
       <c r="B35" t="n">
-        <v>171.6906127929688</v>
+        <v>174.9289245605469</v>
       </c>
     </row>
     <row r="36">
@@ -757,7 +757,7 @@
         <v>43097</v>
       </c>
       <c r="B36" t="n">
-        <v>171.2821960449219</v>
+        <v>174.6001281738281</v>
       </c>
     </row>
     <row r="37">
@@ -765,7 +765,7 @@
         <v>43098</v>
       </c>
       <c r="B37" t="n">
-        <v>170.8026428222656</v>
+        <v>174.2020874023438</v>
       </c>
     </row>
     <row r="38">
@@ -773,7 +773,7 @@
         <v>43102</v>
       </c>
       <c r="B38" t="n">
-        <v>170.14111328125</v>
+        <v>173.6281585693359</v>
       </c>
     </row>
     <row r="39">
@@ -781,7 +781,7 @@
         <v>43103</v>
       </c>
       <c r="B39" t="n">
-        <v>169.7423858642578</v>
+        <v>173.2817230224609</v>
       </c>
     </row>
     <row r="40">
@@ -789,7 +789,7 @@
         <v>43104</v>
       </c>
       <c r="B40" t="n">
-        <v>169.5172424316406</v>
+        <v>173.0777130126953</v>
       </c>
     </row>
     <row r="41">
@@ -797,7 +797,7 @@
         <v>43105</v>
       </c>
       <c r="B41" t="n">
-        <v>169.4924011230469</v>
+        <v>173.0460510253906</v>
       </c>
     </row>
     <row r="42">
@@ -805,7 +805,7 @@
         <v>43108</v>
       </c>
       <c r="B42" t="n">
-        <v>169.7774963378906</v>
+        <v>173.290283203125</v>
       </c>
     </row>
     <row r="43">
@@ -813,7 +813,7 @@
         <v>43109</v>
       </c>
       <c r="B43" t="n">
-        <v>170.1432800292969</v>
+        <v>173.6060943603516</v>
       </c>
     </row>
     <row r="44">
@@ -821,7 +821,7 @@
         <v>43110</v>
       </c>
       <c r="B44" t="n">
-        <v>170.5223388671875</v>
+        <v>173.9391632080078</v>
       </c>
     </row>
     <row r="45">
@@ -829,7 +829,7 @@
         <v>43111</v>
       </c>
       <c r="B45" t="n">
-        <v>170.8700866699219</v>
+        <v>174.2509307861328</v>
       </c>
     </row>
     <row r="46">
@@ -837,7 +837,7 @@
         <v>43112</v>
       </c>
       <c r="B46" t="n">
-        <v>171.2653961181641</v>
+        <v>174.6130065917969</v>
       </c>
     </row>
     <row r="47">
@@ -845,7 +845,7 @@
         <v>43116</v>
       </c>
       <c r="B47" t="n">
-        <v>171.8262023925781</v>
+        <v>175.130615234375</v>
       </c>
     </row>
     <row r="48">
@@ -853,7 +853,7 @@
         <v>43117</v>
       </c>
       <c r="B48" t="n">
-        <v>172.3329467773438</v>
+        <v>175.6039428710938</v>
       </c>
     </row>
     <row r="49">
@@ -861,7 +861,7 @@
         <v>43118</v>
       </c>
       <c r="B49" t="n">
-        <v>173.052001953125</v>
+        <v>176.2777557373047</v>
       </c>
     </row>
     <row r="50">
@@ -869,7 +869,7 @@
         <v>43119</v>
       </c>
       <c r="B50" t="n">
-        <v>173.8291931152344</v>
+        <v>177.0091400146484</v>
       </c>
     </row>
     <row r="51">
@@ -877,7 +877,7 @@
         <v>43122</v>
       </c>
       <c r="B51" t="n">
-        <v>174.4853515625</v>
+        <v>177.6390533447266</v>
       </c>
     </row>
     <row r="52">
@@ -885,7 +885,7 @@
         <v>43123</v>
       </c>
       <c r="B52" t="n">
-        <v>174.866943359375</v>
+        <v>178.0296173095703</v>
       </c>
     </row>
     <row r="53">
@@ -893,7 +893,7 @@
         <v>43124</v>
       </c>
       <c r="B53" t="n">
-        <v>175.0626831054688</v>
+        <v>178.2594909667969</v>
       </c>
     </row>
     <row r="54">
@@ -901,7 +901,7 @@
         <v>43125</v>
       </c>
       <c r="B54" t="n">
-        <v>174.8515625</v>
+        <v>178.1221008300781</v>
       </c>
     </row>
     <row r="55">
@@ -909,7 +909,7 @@
         <v>43126</v>
       </c>
       <c r="B55" t="n">
-        <v>174.1278686523438</v>
+        <v>177.5189971923828</v>
       </c>
     </row>
     <row r="56">
@@ -917,7 +917,7 @@
         <v>43129</v>
       </c>
       <c r="B56" t="n">
-        <v>173.2281036376953</v>
+        <v>176.7493133544922</v>
       </c>
     </row>
     <row r="57">
@@ -925,7 +925,7 @@
         <v>43130</v>
       </c>
       <c r="B57" t="n">
-        <v>171.9576568603516</v>
+        <v>175.626220703125</v>
       </c>
     </row>
     <row r="58">
@@ -933,7 +933,7 @@
         <v>43131</v>
       </c>
       <c r="B58" t="n">
-        <v>170.5089721679688</v>
+        <v>174.3233795166016</v>
       </c>
     </row>
     <row r="59">
@@ -941,7 +941,7 @@
         <v>43132</v>
       </c>
       <c r="B59" t="n">
-        <v>169.1427917480469</v>
+        <v>173.0722808837891</v>
       </c>
     </row>
     <row r="60">
@@ -949,7 +949,7 @@
         <v>43133</v>
       </c>
       <c r="B60" t="n">
-        <v>167.9853973388672</v>
+        <v>171.9855041503906</v>
       </c>
     </row>
     <row r="61">
@@ -957,7 +957,7 @@
         <v>43136</v>
       </c>
       <c r="B61" t="n">
-        <v>166.3399810791016</v>
+        <v>170.43359375</v>
       </c>
     </row>
     <row r="62">
@@ -965,7 +965,7 @@
         <v>43137</v>
       </c>
       <c r="B62" t="n">
-        <v>164.20458984375</v>
+        <v>168.4239654541016</v>
       </c>
     </row>
     <row r="63">
@@ -973,7 +973,7 @@
         <v>43138</v>
       </c>
       <c r="B63" t="n">
-        <v>162.6465454101562</v>
+        <v>166.9212646484375</v>
       </c>
     </row>
   </sheetData>
